--- a/data/Tab1.xlsx
+++ b/data/Tab1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/TN-BusTax2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441476E8-966B-D14B-ADEE-BD52DF6D19CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB676A-240E-4847-96E8-A304AA98AC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26380" yWindow="4140" windowWidth="25760" windowHeight="14920" xr2:uid="{2F00C51F-34EA-FB4F-8ECA-F0C452F06781}"/>
+    <workbookView xWindow="-25760" yWindow="4000" windowWidth="25760" windowHeight="14920" xr2:uid="{2F00C51F-34EA-FB4F-8ECA-F0C452F06781}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Tax category</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>Table 2 Calculation</t>
+  </si>
+  <si>
+    <t>Excise</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t>6.5 to 6.0</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>New liability</t>
+  </si>
+  <si>
+    <t>Net change</t>
+  </si>
+  <si>
+    <t>0.0025 to 0.0020</t>
+  </si>
+  <si>
+    <t>Income</t>
   </si>
 </sst>
 </file>
@@ -465,16 +489,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF68E6A0-C6E6-ED47-BCCA-CD4085DFA613}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,6 +680,70 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <f>SUM(E6:E7)</f>
+        <v>546570132.42000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <f>E4/0.065</f>
+        <v>52020571633.55323</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f>0.06*E18</f>
+        <v>3121234298.0131936</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <f>H18-E4</f>
+        <v>-260102858.16776657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <f>E5/0.0025</f>
+        <v>570100336235.61584</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <f>0.002*E19</f>
+        <v>1140200672.4712317</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1">
+        <f>H19-E5</f>
+        <v>-285050168.11780787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
